--- a/os_fe_20180816.xlsx
+++ b/os_fe_20180816.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{95DEEB8D-DD74-494C-BB98-F4E20C23A144}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="undefined.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">undefined.xlsx!$A$1:$H$661</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5276" uniqueCount="1216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5276" uniqueCount="1217">
   <si>
     <t>文件目录</t>
   </si>
@@ -3663,13 +3665,17 @@
   </si>
   <si>
     <t>Obtain Amt Sign</t>
+  </si>
+  <si>
+    <t>Open Platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4045,20 +4051,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="F462" sqref="F462"/>
+    <sheetView tabSelected="1" topLeftCell="A548" workbookViewId="0">
+      <selection activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4084,7 +4090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4110,7 +4116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4136,7 +4142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4188,7 +4194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -4422,7 +4428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -4448,7 +4454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -4526,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4656,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4786,7 +4792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -4838,7 +4844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>72</v>
       </c>
@@ -4864,7 +4870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -4968,7 +4974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -4994,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -5020,7 +5026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -5046,7 +5052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5072,7 +5078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -5150,7 +5156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>95</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -5202,7 +5208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -5280,7 +5286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -5332,7 +5338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -5358,7 +5364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -5410,7 +5416,7 @@
         <v>20180828</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>119</v>
       </c>
@@ -5436,7 +5442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -5462,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>119</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>119</v>
       </c>
@@ -5514,7 +5520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -5540,7 +5546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>119</v>
       </c>
@@ -5566,7 +5572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -5592,7 +5598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -5644,7 +5650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>119</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -5800,7 +5806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>119</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>119</v>
       </c>
@@ -5852,7 +5858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>119</v>
       </c>
@@ -5878,7 +5884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -5982,7 +5988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -6008,7 +6014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -6034,7 +6040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>183</v>
       </c>
@@ -6086,7 +6092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>183</v>
       </c>
@@ -6112,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -6138,7 +6144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>183</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -6190,7 +6196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>194</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -6320,7 +6326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>194</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>194</v>
       </c>
@@ -6424,7 +6430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -6450,7 +6456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>213</v>
       </c>
@@ -6528,7 +6534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>213</v>
       </c>
@@ -6554,7 +6560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>213</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>213</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>213</v>
       </c>
@@ -6632,7 +6638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>213</v>
       </c>
@@ -6658,7 +6664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -6762,7 +6768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -6788,7 +6794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>234</v>
       </c>
@@ -6840,7 +6846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>234</v>
       </c>
@@ -6866,7 +6872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -6892,7 +6898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>234</v>
       </c>
@@ -6918,7 +6924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>234</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>20180828</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>234</v>
       </c>
@@ -6996,7 +7002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -7022,7 +7028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -7048,7 +7054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>234</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>242</v>
       </c>
@@ -7100,7 +7106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>245</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>245</v>
       </c>
@@ -7152,7 +7158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>249</v>
       </c>
@@ -7178,7 +7184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -7204,7 +7210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>254</v>
       </c>
@@ -7230,7 +7236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>254</v>
       </c>
@@ -7256,7 +7262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -7282,7 +7288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>261</v>
       </c>
@@ -7308,7 +7314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>261</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>261</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>261</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>261</v>
       </c>
@@ -7412,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>261</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7464,7 +7470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>261</v>
       </c>
@@ -7490,7 +7496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>272</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>272</v>
       </c>
@@ -7568,7 +7574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>272</v>
       </c>
@@ -7594,7 +7600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>272</v>
       </c>
@@ -7646,7 +7652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -7672,7 +7678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>277</v>
       </c>
@@ -7698,7 +7704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>277</v>
       </c>
@@ -7724,7 +7730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>277</v>
       </c>
@@ -7750,7 +7756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>277</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>277</v>
       </c>
@@ -7802,7 +7808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>280</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>280</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -7880,7 +7886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>288</v>
       </c>
@@ -7906,7 +7912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>288</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -7958,7 +7964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>293</v>
       </c>
@@ -7984,7 +7990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>293</v>
       </c>
@@ -8010,7 +8016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>293</v>
       </c>
@@ -8036,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>293</v>
       </c>
@@ -8062,7 +8068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>299</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>299</v>
       </c>
@@ -8114,7 +8120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>299</v>
       </c>
@@ -8140,7 +8146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>299</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>299</v>
       </c>
@@ -8192,7 +8198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>306</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>306</v>
       </c>
@@ -8244,7 +8250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>306</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>306</v>
       </c>
@@ -8296,7 +8302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>306</v>
       </c>
@@ -8322,7 +8328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>306</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>306</v>
       </c>
@@ -8374,7 +8380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>306</v>
       </c>
@@ -8400,7 +8406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>306</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>311</v>
       </c>
@@ -8452,7 +8458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>311</v>
       </c>
@@ -8478,7 +8484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>311</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>311</v>
       </c>
@@ -8530,7 +8536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>311</v>
       </c>
@@ -8556,7 +8562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>311</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>311</v>
       </c>
@@ -8608,7 +8614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>311</v>
       </c>
@@ -8634,7 +8640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>311</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>311</v>
       </c>
@@ -8686,7 +8692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>311</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>311</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>20180828</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>311</v>
       </c>
@@ -8764,7 +8770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>311</v>
       </c>
@@ -8790,7 +8796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>311</v>
       </c>
@@ -8816,7 +8822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>311</v>
       </c>
@@ -8842,7 +8848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>311</v>
       </c>
@@ -8868,7 +8874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>311</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>311</v>
       </c>
@@ -8920,7 +8926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>311</v>
       </c>
@@ -8946,7 +8952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>311</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>311</v>
       </c>
@@ -8998,7 +9004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>359</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>359</v>
       </c>
@@ -9050,7 +9056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>359</v>
       </c>
@@ -9076,7 +9082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>359</v>
       </c>
@@ -9102,7 +9108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>359</v>
       </c>
@@ -9128,7 +9134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>359</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>359</v>
       </c>
@@ -9180,7 +9186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>359</v>
       </c>
@@ -9206,7 +9212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>359</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>359</v>
       </c>
@@ -9258,7 +9264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>359</v>
       </c>
@@ -9284,7 +9290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>359</v>
       </c>
@@ -9310,7 +9316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>359</v>
       </c>
@@ -9336,7 +9342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>359</v>
       </c>
@@ -9362,7 +9368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>359</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>359</v>
       </c>
@@ -9414,7 +9420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>359</v>
       </c>
@@ -9440,7 +9446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>359</v>
       </c>
@@ -9466,7 +9472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>359</v>
       </c>
@@ -9492,7 +9498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>359</v>
       </c>
@@ -9518,7 +9524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>359</v>
       </c>
@@ -9544,7 +9550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>359</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>359</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>359</v>
       </c>
@@ -9622,7 +9628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>359</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>359</v>
       </c>
@@ -9674,7 +9680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>359</v>
       </c>
@@ -9700,7 +9706,7 @@
         <v>20180828</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>359</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>359</v>
       </c>
@@ -9752,7 +9758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>359</v>
       </c>
@@ -9778,7 +9784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>359</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>359</v>
       </c>
@@ -9830,7 +9836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>359</v>
       </c>
@@ -9856,7 +9862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>359</v>
       </c>
@@ -9882,7 +9888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>359</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>421</v>
       </c>
@@ -9934,7 +9940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>421</v>
       </c>
@@ -9960,7 +9966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>421</v>
       </c>
@@ -9986,7 +9992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>426</v>
       </c>
@@ -10012,7 +10018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>426</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>431</v>
       </c>
@@ -10064,7 +10070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>431</v>
       </c>
@@ -10090,7 +10096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>435</v>
       </c>
@@ -10116,7 +10122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>435</v>
       </c>
@@ -10142,7 +10148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>438</v>
       </c>
@@ -10168,7 +10174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>439</v>
       </c>
@@ -10194,7 +10200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>439</v>
       </c>
@@ -10220,7 +10226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>443</v>
       </c>
@@ -10246,7 +10252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>443</v>
       </c>
@@ -10272,7 +10278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>443</v>
       </c>
@@ -10298,7 +10304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>443</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>443</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>443</v>
       </c>
@@ -10376,7 +10382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>443</v>
       </c>
@@ -10402,7 +10408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>443</v>
       </c>
@@ -10428,7 +10434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>443</v>
       </c>
@@ -10454,7 +10460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>443</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>443</v>
       </c>
@@ -10506,7 +10512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>443</v>
       </c>
@@ -10532,7 +10538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>443</v>
       </c>
@@ -10558,7 +10564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>443</v>
       </c>
@@ -10584,7 +10590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>443</v>
       </c>
@@ -10610,7 +10616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>443</v>
       </c>
@@ -10636,7 +10642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>443</v>
       </c>
@@ -10662,7 +10668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>443</v>
       </c>
@@ -10688,7 +10694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>443</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>443</v>
       </c>
@@ -10740,7 +10746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>443</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>443</v>
       </c>
@@ -10792,7 +10798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>443</v>
       </c>
@@ -10818,7 +10824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>443</v>
       </c>
@@ -10844,7 +10850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>443</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>443</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>443</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>443</v>
       </c>
@@ -10948,7 +10954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>443</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>443</v>
       </c>
@@ -11000,7 +11006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>443</v>
       </c>
@@ -11026,7 +11032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>443</v>
       </c>
@@ -11052,7 +11058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>443</v>
       </c>
@@ -11078,7 +11084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>443</v>
       </c>
@@ -11104,7 +11110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>443</v>
       </c>
@@ -11130,7 +11136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>443</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>443</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>443</v>
       </c>
@@ -11208,7 +11214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>443</v>
       </c>
@@ -11234,7 +11240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>443</v>
       </c>
@@ -11260,7 +11266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>443</v>
       </c>
@@ -11286,7 +11292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>443</v>
       </c>
@@ -11312,7 +11318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>443</v>
       </c>
@@ -11338,7 +11344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>443</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>443</v>
       </c>
@@ -11390,7 +11396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>443</v>
       </c>
@@ -11416,7 +11422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>443</v>
       </c>
@@ -11442,7 +11448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>443</v>
       </c>
@@ -11468,7 +11474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>443</v>
       </c>
@@ -11494,7 +11500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>443</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>575</v>
       </c>
@@ -11546,7 +11552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>575</v>
       </c>
@@ -11572,7 +11578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>575</v>
       </c>
@@ -11598,7 +11604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -11624,7 +11630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>578</v>
       </c>
@@ -11650,7 +11656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>579</v>
       </c>
@@ -11676,7 +11682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -11702,7 +11708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>582</v>
       </c>
@@ -11728,7 +11734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>582</v>
       </c>
@@ -11754,7 +11760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>583</v>
       </c>
@@ -11780,7 +11786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>583</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>583</v>
       </c>
@@ -11832,7 +11838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>583</v>
       </c>
@@ -11858,7 +11864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>583</v>
       </c>
@@ -11884,7 +11890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>583</v>
       </c>
@@ -11910,7 +11916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>583</v>
       </c>
@@ -11936,7 +11942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>583</v>
       </c>
@@ -11962,7 +11968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>583</v>
       </c>
@@ -11988,7 +11994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>583</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>583</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>583</v>
       </c>
@@ -12066,7 +12072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>583</v>
       </c>
@@ -12092,7 +12098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>583</v>
       </c>
@@ -12118,7 +12124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>583</v>
       </c>
@@ -12144,7 +12150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>583</v>
       </c>
@@ -12170,7 +12176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>583</v>
       </c>
@@ -12196,7 +12202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>583</v>
       </c>
@@ -12222,7 +12228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>583</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>583</v>
       </c>
@@ -12274,7 +12280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>583</v>
       </c>
@@ -12300,7 +12306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>583</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>583</v>
       </c>
@@ -12352,7 +12358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>583</v>
       </c>
@@ -12378,7 +12384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>583</v>
       </c>
@@ -12404,7 +12410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>583</v>
       </c>
@@ -12430,7 +12436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>583</v>
       </c>
@@ -12456,7 +12462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>583</v>
       </c>
@@ -12482,7 +12488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>583</v>
       </c>
@@ -12508,7 +12514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>583</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>583</v>
       </c>
@@ -12560,7 +12566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>583</v>
       </c>
@@ -12586,7 +12592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>583</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>583</v>
       </c>
@@ -12638,7 +12644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>583</v>
       </c>
@@ -12664,7 +12670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>583</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>583</v>
       </c>
@@ -12716,7 +12722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>583</v>
       </c>
@@ -12742,7 +12748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>583</v>
       </c>
@@ -12768,7 +12774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>583</v>
       </c>
@@ -12794,7 +12800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>583</v>
       </c>
@@ -12820,7 +12826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>583</v>
       </c>
@@ -12846,7 +12852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>583</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>583</v>
       </c>
@@ -12898,7 +12904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>583</v>
       </c>
@@ -12924,7 +12930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>583</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>583</v>
       </c>
@@ -12976,7 +12982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>583</v>
       </c>
@@ -13002,7 +13008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>583</v>
       </c>
@@ -13028,7 +13034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>583</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>583</v>
       </c>
@@ -13080,7 +13086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>583</v>
       </c>
@@ -13106,7 +13112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>583</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>583</v>
       </c>
@@ -13158,7 +13164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>583</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>20180828</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>583</v>
       </c>
@@ -13210,7 +13216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>583</v>
       </c>
@@ -13236,7 +13242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>583</v>
       </c>
@@ -13262,7 +13268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>583</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>583</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>583</v>
       </c>
@@ -13340,7 +13346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>583</v>
       </c>
@@ -13366,7 +13372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>583</v>
       </c>
@@ -13392,7 +13398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>583</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>583</v>
       </c>
@@ -13444,7 +13450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>583</v>
       </c>
@@ -13470,7 +13476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>583</v>
       </c>
@@ -13496,7 +13502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>583</v>
       </c>
@@ -13522,7 +13528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>583</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>583</v>
       </c>
@@ -13574,7 +13580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>583</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>583</v>
       </c>
@@ -13626,7 +13632,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>583</v>
       </c>
@@ -13652,7 +13658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>583</v>
       </c>
@@ -13678,7 +13684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>583</v>
       </c>
@@ -13704,7 +13710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>583</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>583</v>
       </c>
@@ -13756,7 +13762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>583</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>583</v>
       </c>
@@ -13808,7 +13814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>583</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>684</v>
       </c>
@@ -13860,7 +13866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>684</v>
       </c>
@@ -13886,7 +13892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>684</v>
       </c>
@@ -13912,7 +13918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>684</v>
       </c>
@@ -13938,7 +13944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>684</v>
       </c>
@@ -13964,7 +13970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>684</v>
       </c>
@@ -13990,7 +13996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>684</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>695</v>
       </c>
@@ -14042,7 +14048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>695</v>
       </c>
@@ -14068,7 +14074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>698</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>698</v>
       </c>
@@ -14120,7 +14126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>698</v>
       </c>
@@ -14146,7 +14152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>698</v>
       </c>
@@ -14172,7 +14178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>698</v>
       </c>
@@ -14198,7 +14204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>707</v>
       </c>
@@ -14224,7 +14230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>707</v>
       </c>
@@ -14250,7 +14256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>714</v>
       </c>
@@ -14276,7 +14282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>714</v>
       </c>
@@ -14302,7 +14308,7 @@
         <v>20180829</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>714</v>
       </c>
@@ -14328,7 +14334,7 @@
         <v>20180829</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>714</v>
       </c>
@@ -14354,7 +14360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>714</v>
       </c>
@@ -14380,7 +14386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>714</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>714</v>
       </c>
@@ -14432,7 +14438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>714</v>
       </c>
@@ -14458,7 +14464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>714</v>
       </c>
@@ -14484,7 +14490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>714</v>
       </c>
@@ -14510,7 +14516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>714</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>714</v>
       </c>
@@ -14562,7 +14568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>714</v>
       </c>
@@ -14588,7 +14594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>714</v>
       </c>
@@ -14614,7 +14620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>714</v>
       </c>
@@ -14640,7 +14646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>714</v>
       </c>
@@ -14666,7 +14672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>714</v>
       </c>
@@ -14692,7 +14698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>714</v>
       </c>
@@ -14718,7 +14724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>714</v>
       </c>
@@ -14744,7 +14750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>714</v>
       </c>
@@ -14770,7 +14776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>714</v>
       </c>
@@ -14796,7 +14802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>714</v>
       </c>
@@ -14822,7 +14828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>714</v>
       </c>
@@ -14848,7 +14854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>762</v>
       </c>
@@ -14874,7 +14880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>762</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>762</v>
       </c>
@@ -14926,7 +14932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>762</v>
       </c>
@@ -14952,7 +14958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>762</v>
       </c>
@@ -14978,7 +14984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>762</v>
       </c>
@@ -15004,7 +15010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>762</v>
       </c>
@@ -15030,7 +15036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>762</v>
       </c>
@@ -15056,7 +15062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>762</v>
       </c>
@@ -15082,7 +15088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>762</v>
       </c>
@@ -15108,7 +15114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>762</v>
       </c>
@@ -15134,7 +15140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>762</v>
       </c>
@@ -15160,7 +15166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>762</v>
       </c>
@@ -15186,7 +15192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>762</v>
       </c>
@@ -15212,7 +15218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>762</v>
       </c>
@@ -15238,7 +15244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>762</v>
       </c>
@@ -15264,7 +15270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>762</v>
       </c>
@@ -15290,7 +15296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>762</v>
       </c>
@@ -15316,7 +15322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>762</v>
       </c>
@@ -15342,7 +15348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>762</v>
       </c>
@@ -15368,7 +15374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>762</v>
       </c>
@@ -15394,7 +15400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>762</v>
       </c>
@@ -15420,7 +15426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>797</v>
       </c>
@@ -15446,7 +15452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>797</v>
       </c>
@@ -15472,7 +15478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>797</v>
       </c>
@@ -15498,7 +15504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>797</v>
       </c>
@@ -15524,7 +15530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>808</v>
       </c>
@@ -15550,7 +15556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>808</v>
       </c>
@@ -15576,7 +15582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>808</v>
       </c>
@@ -15602,7 +15608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>808</v>
       </c>
@@ -15628,7 +15634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>808</v>
       </c>
@@ -15654,7 +15660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>808</v>
       </c>
@@ -15680,7 +15686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>821</v>
       </c>
@@ -15706,7 +15712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>821</v>
       </c>
@@ -15732,7 +15738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>821</v>
       </c>
@@ -15758,7 +15764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>821</v>
       </c>
@@ -15784,7 +15790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>821</v>
       </c>
@@ -15810,7 +15816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>821</v>
       </c>
@@ -15836,7 +15842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>821</v>
       </c>
@@ -15862,7 +15868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>821</v>
       </c>
@@ -15888,7 +15894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>821</v>
       </c>
@@ -15914,7 +15920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>821</v>
       </c>
@@ -15940,7 +15946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>821</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>821</v>
       </c>
@@ -15992,7 +15998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>840</v>
       </c>
@@ -16018,7 +16024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>840</v>
       </c>
@@ -16044,7 +16050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>840</v>
       </c>
@@ -16070,7 +16076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>840</v>
       </c>
@@ -16090,13 +16096,13 @@
         <v>850</v>
       </c>
       <c r="G463" t="s">
-        <v>7</v>
+        <v>1216</v>
       </c>
       <c r="H463" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>840</v>
       </c>
@@ -16122,7 +16128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>840</v>
       </c>
@@ -16148,7 +16154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>840</v>
       </c>
@@ -16174,7 +16180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>858</v>
       </c>
@@ -16200,7 +16206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>858</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>862</v>
       </c>
@@ -16252,7 +16258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>862</v>
       </c>
@@ -16278,7 +16284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>862</v>
       </c>
@@ -16304,7 +16310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>862</v>
       </c>
@@ -16330,7 +16336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>876</v>
       </c>
@@ -16356,7 +16362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>876</v>
       </c>
@@ -16382,7 +16388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>876</v>
       </c>
@@ -16408,7 +16414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>876</v>
       </c>
@@ -16434,7 +16440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>890</v>
       </c>
@@ -16460,7 +16466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>890</v>
       </c>
@@ -16486,7 +16492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>890</v>
       </c>
@@ -16512,7 +16518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>890</v>
       </c>
@@ -16538,7 +16544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>904</v>
       </c>
@@ -16564,7 +16570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>904</v>
       </c>
@@ -16590,7 +16596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>904</v>
       </c>
@@ -16616,7 +16622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>904</v>
       </c>
@@ -16642,7 +16648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>904</v>
       </c>
@@ -16668,7 +16674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>904</v>
       </c>
@@ -16694,7 +16700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>904</v>
       </c>
@@ -16720,7 +16726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>904</v>
       </c>
@@ -16746,7 +16752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>904</v>
       </c>
@@ -16772,7 +16778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>904</v>
       </c>
@@ -16798,7 +16804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>904</v>
       </c>
@@ -16824,7 +16830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>904</v>
       </c>
@@ -16850,7 +16856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>904</v>
       </c>
@@ -16876,7 +16882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>904</v>
       </c>
@@ -16902,7 +16908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>904</v>
       </c>
@@ -16928,7 +16934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>904</v>
       </c>
@@ -16954,7 +16960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>904</v>
       </c>
@@ -16980,7 +16986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>904</v>
       </c>
@@ -17006,7 +17012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>954</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>954</v>
       </c>
@@ -17058,7 +17064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>954</v>
       </c>
@@ -17084,7 +17090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>954</v>
       </c>
@@ -17110,7 +17116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>954</v>
       </c>
@@ -17136,7 +17142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>954</v>
       </c>
@@ -17162,7 +17168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>974</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>974</v>
       </c>
@@ -17214,7 +17220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>974</v>
       </c>
@@ -17240,7 +17246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>985</v>
       </c>
@@ -17266,7 +17272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>985</v>
       </c>
@@ -17292,7 +17298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>985</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>985</v>
       </c>
@@ -17344,7 +17350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>985</v>
       </c>
@@ -17370,7 +17376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>985</v>
       </c>
@@ -17396,7 +17402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>985</v>
       </c>
@@ -17422,7 +17428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>985</v>
       </c>
@@ -17448,7 +17454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>985</v>
       </c>
@@ -17474,7 +17480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>985</v>
       </c>
@@ -17500,7 +17506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>985</v>
       </c>
@@ -17526,7 +17532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>985</v>
       </c>
@@ -17552,7 +17558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>985</v>
       </c>
@@ -17578,7 +17584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>985</v>
       </c>
@@ -17604,7 +17610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>985</v>
       </c>
@@ -17630,7 +17636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>985</v>
       </c>
@@ -17656,7 +17662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>985</v>
       </c>
@@ -17682,7 +17688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>985</v>
       </c>
@@ -17708,7 +17714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>985</v>
       </c>
@@ -17734,7 +17740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>985</v>
       </c>
@@ -17760,7 +17766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>985</v>
       </c>
@@ -17786,7 +17792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>985</v>
       </c>
@@ -17812,7 +17818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>985</v>
       </c>
@@ -17838,7 +17844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>985</v>
       </c>
@@ -17864,7 +17870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>985</v>
       </c>
@@ -17890,7 +17896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>985</v>
       </c>
@@ -17916,7 +17922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>985</v>
       </c>
@@ -17942,7 +17948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>985</v>
       </c>
@@ -17968,7 +17974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>985</v>
       </c>
@@ -17994,7 +18000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>985</v>
       </c>
@@ -18020,7 +18026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>985</v>
       </c>
@@ -18046,7 +18052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>985</v>
       </c>
@@ -18072,7 +18078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>985</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>985</v>
       </c>
@@ -18124,7 +18130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>985</v>
       </c>
@@ -18150,7 +18156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>985</v>
       </c>
@@ -18176,7 +18182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>985</v>
       </c>
@@ -18202,7 +18208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>985</v>
       </c>
@@ -18228,7 +18234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>985</v>
       </c>
@@ -18254,7 +18260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>985</v>
       </c>
@@ -18280,7 +18286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>985</v>
       </c>
@@ -18306,7 +18312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>985</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>985</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>985</v>
       </c>
@@ -18384,7 +18390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>985</v>
       </c>
@@ -18410,7 +18416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>998</v>
       </c>
@@ -18436,7 +18442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>998</v>
       </c>
@@ -18462,7 +18468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>998</v>
       </c>
@@ -18488,7 +18494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>998</v>
       </c>
@@ -18514,7 +18520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>998</v>
       </c>
@@ -18540,7 +18546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>998</v>
       </c>
@@ -18566,7 +18572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>998</v>
       </c>
@@ -18592,7 +18598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>998</v>
       </c>
@@ -18618,7 +18624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>998</v>
       </c>
@@ -18644,7 +18650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>998</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>998</v>
       </c>
@@ -18696,7 +18702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>998</v>
       </c>
@@ -18722,7 +18728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>998</v>
       </c>
@@ -18748,7 +18754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>998</v>
       </c>
@@ -18774,7 +18780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>998</v>
       </c>
@@ -18800,7 +18806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>998</v>
       </c>
@@ -18826,7 +18832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>998</v>
       </c>
@@ -18852,7 +18858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>998</v>
       </c>
@@ -18878,7 +18884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>998</v>
       </c>
@@ -18904,7 +18910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>998</v>
       </c>
@@ -18930,7 +18936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1038</v>
       </c>
@@ -18956,7 +18962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1038</v>
       </c>
@@ -18982,7 +18988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1040</v>
       </c>
@@ -19008,7 +19014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1040</v>
       </c>
@@ -19034,7 +19040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1040</v>
       </c>
@@ -19060,7 +19066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1041</v>
       </c>
@@ -19086,7 +19092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1041</v>
       </c>
@@ -19112,7 +19118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1041</v>
       </c>
@@ -19138,7 +19144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1041</v>
       </c>
@@ -19164,7 +19170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1041</v>
       </c>
@@ -19190,7 +19196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1042</v>
       </c>
@@ -19216,7 +19222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1042</v>
       </c>
@@ -19242,7 +19248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1043</v>
       </c>
@@ -19268,7 +19274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1043</v>
       </c>
@@ -19294,7 +19300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1047</v>
       </c>
@@ -19320,7 +19326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1047</v>
       </c>
@@ -19346,7 +19352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1050</v>
       </c>
@@ -19372,7 +19378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1050</v>
       </c>
@@ -19398,7 +19404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1053</v>
       </c>
@@ -19424,7 +19430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1053</v>
       </c>
@@ -19450,7 +19456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1053</v>
       </c>
@@ -19476,7 +19482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1053</v>
       </c>
@@ -19502,7 +19508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1057</v>
       </c>
@@ -19528,7 +19534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1057</v>
       </c>
@@ -19554,7 +19560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1059</v>
       </c>
@@ -19580,7 +19586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1059</v>
       </c>
@@ -19606,7 +19612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1059</v>
       </c>
@@ -19632,7 +19638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1059</v>
       </c>
@@ -19658,7 +19664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1059</v>
       </c>
@@ -19684,7 +19690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1066</v>
       </c>
@@ -19710,7 +19716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1066</v>
       </c>
@@ -19736,7 +19742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1066</v>
       </c>
@@ -19762,7 +19768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1066</v>
       </c>
@@ -19788,7 +19794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1080</v>
       </c>
@@ -19814,7 +19820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1080</v>
       </c>
@@ -19840,7 +19846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1080</v>
       </c>
@@ -19866,7 +19872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1087</v>
       </c>
@@ -19892,7 +19898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1090</v>
       </c>
@@ -19918,7 +19924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1090</v>
       </c>
@@ -19944,7 +19950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1093</v>
       </c>
@@ -19970,7 +19976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1093</v>
       </c>
@@ -19996,7 +20002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1093</v>
       </c>
@@ -20022,7 +20028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1093</v>
       </c>
@@ -20048,7 +20054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1093</v>
       </c>
@@ -20074,7 +20080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1093</v>
       </c>
@@ -20100,7 +20106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1093</v>
       </c>
@@ -20126,7 +20132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1093</v>
       </c>
@@ -20152,7 +20158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1093</v>
       </c>
@@ -20178,7 +20184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1093</v>
       </c>
@@ -20204,7 +20210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1093</v>
       </c>
@@ -20230,7 +20236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1093</v>
       </c>
@@ -20256,7 +20262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1093</v>
       </c>
@@ -20282,7 +20288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1093</v>
       </c>
@@ -20308,7 +20314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1093</v>
       </c>
@@ -20334,7 +20340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1093</v>
       </c>
@@ -20360,7 +20366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1093</v>
       </c>
@@ -20386,7 +20392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1093</v>
       </c>
@@ -20412,7 +20418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1093</v>
       </c>
@@ -20438,7 +20444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1093</v>
       </c>
@@ -20464,7 +20470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1093</v>
       </c>
@@ -20490,7 +20496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1093</v>
       </c>
@@ -20516,7 +20522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1093</v>
       </c>
@@ -20542,7 +20548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1093</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1093</v>
       </c>
@@ -20594,7 +20600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1093</v>
       </c>
@@ -20620,7 +20626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1093</v>
       </c>
@@ -20646,7 +20652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1093</v>
       </c>
@@ -20672,7 +20678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1093</v>
       </c>
@@ -20698,7 +20704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1093</v>
       </c>
@@ -20724,7 +20730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1093</v>
       </c>
@@ -20750,7 +20756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1093</v>
       </c>
@@ -20776,7 +20782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1093</v>
       </c>
@@ -20802,7 +20808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1093</v>
       </c>
@@ -20828,7 +20834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1093</v>
       </c>
@@ -20854,7 +20860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1168</v>
       </c>
@@ -20880,7 +20886,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1168</v>
       </c>
@@ -20906,7 +20912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1168</v>
       </c>
@@ -20932,7 +20938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1168</v>
       </c>
@@ -20958,7 +20964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1168</v>
       </c>
@@ -20984,7 +20990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1168</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1168</v>
       </c>
@@ -21036,7 +21042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1168</v>
       </c>
@@ -21062,7 +21068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1194</v>
       </c>
@@ -21088,7 +21094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1194</v>
       </c>
@@ -21114,7 +21120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1194</v>
       </c>
@@ -21140,7 +21146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1194</v>
       </c>
@@ -21166,7 +21172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1194</v>
       </c>
@@ -21192,7 +21198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1194</v>
       </c>
@@ -21218,7 +21224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1194</v>
       </c>
